--- a/biology/Botanique/Resedaceae/Resedaceae.xlsx
+++ b/biology/Botanique/Resedaceae/Resedaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Resedaceae (Résédacées) est constituée de plantes dicotylédones ; elle comprend 70 espèces réparties en 6 ou 7 genres.
 Ce sont essentiellement des plantes herbacées annuelles, bisannuelles ou vivaces des régions tempérées à subtropicales (Europe, Bassin méditerranéen, Afrique du Nord, Moyen-Orient, sud-ouest des États-Unis, Mexique).
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Reseda, nom latin la plante, de resedo, resedare, « calmer, guérir », ces plantes étant autrefois employées en médecine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Reseda, nom latin la plante, de resedo, resedare, « calmer, guérir », ces plantes étant autrefois employées en médecine.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification classique de Cronquist (1981)[2] situait cette famille dans l'ordre des Capparales.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification classique de Cronquist (1981) situait cette famille dans l'ordre des Capparales.
 La classification phylogénétique situe cette famille dans l'ordre des Brassicales.
-La classification phylogénétique APG IV (2016)[3] transfère les genres Borthwickia, Forchhammeria, Stixis et Tirania, auparavant tous dans les Capparaceae, dans les Resedaceae.
+La classification phylogénétique APG IV (2016) transfère les genres Borthwickia, Forchhammeria, Stixis et Tirania, auparavant tous dans les Capparaceae, dans les Resedaceae.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (21 juin 2010) :
 Caylusea (en)
 Homalodiscus
 Ochradenus (en)
@@ -586,7 +604,7 @@
 Randonia
 Reseda
 Sesamoides
-Selon NCBI  (21 juin 2010)[5] :
+Selon NCBI  (21 juin 2010) :
 Caylusea
 Forchhammeria (en)
 Ochradenus
@@ -594,14 +612,14 @@
 Randonia
 Reseda
 Sesamoides
-Selon DELTA Angio           (21 juin 2010)[6] :
+Selon DELTA Angio           (21 juin 2010) :
 Caylusea
 Ochradenus
 Oligomeris
 Randonia
 Reseda
 Sesamoides
-Selon ITIS      (21 juin 2010)[7] :
+Selon ITIS      (21 juin 2010) :
 Oligomeris Camb.
 Reseda L.</t>
         </is>
@@ -631,9 +649,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (21 juin 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (21 juin 2010) :
 genre Caylusea
 Caylusea abyssinica
 Caylusea hexagyna
